--- a/Object_Size_Test.xlsx
+++ b/Object_Size_Test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xweichu/Projects/GlueLoader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{871AEBC9-97AD-3B44-8851-A5D3ADA23307}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D77B0-F69B-2D4D-8FB7-4645655BC017}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="480" windowWidth="28040" windowHeight="15820" xr2:uid="{AE4D0231-3236-B042-909B-C5DBB939DA58}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15820" activeTab="1" xr2:uid="{AE4D0231-3236-B042-909B-C5DBB939DA58}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Object Size" sheetId="1" r:id="rId1"/>
+    <sheet name="Block Size" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>4MB</t>
   </si>
@@ -62,14 +63,69 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>4K</t>
+  </si>
+  <si>
+    <t>8K</t>
+  </si>
+  <si>
+    <t>16K</t>
+  </si>
+  <si>
+    <t>32K</t>
+  </si>
+  <si>
+    <t>64K</t>
+  </si>
+  <si>
+    <t>128K</t>
+  </si>
+  <si>
+    <t>256K</t>
+  </si>
+  <si>
+    <t>512K</t>
+  </si>
+  <si>
+    <t>1024K</t>
+  </si>
+  <si>
+    <t>2048K</t>
+  </si>
+  <si>
+    <t>4096K</t>
+  </si>
+  <si>
+    <t>8192K</t>
+  </si>
+  <si>
+    <t>16384K</t>
+  </si>
+  <si>
+    <t>32768K</t>
+  </si>
+  <si>
+    <t>Block Size</t>
+  </si>
+  <si>
+    <t>BW(KB/s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,16 +152,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -220,7 +304,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Object Size'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -243,7 +327,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>'Object Size'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -272,7 +356,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>'Object Size'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -312,7 +396,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Object Size'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -335,7 +419,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>'Object Size'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -364,7 +448,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>'Object Size'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -404,7 +488,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Object Size'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -427,7 +511,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>'Object Size'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -456,7 +540,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>'Object Size'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -496,7 +580,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Object Size'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -519,7 +603,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>'Object Size'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -548,7 +632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>'Object Size'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -785,6 +869,371 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.121365331725879E-2"/>
+          <c:y val="1.9546333398716618E-2"/>
+          <c:w val="0.89816433711336319"/>
+          <c:h val="0.78545100456748951"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Block Size'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BW(KB/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Block Size'!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32K</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128K</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256K</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024K</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048K</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8192K</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16384K</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32768K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Block Size'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6555.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>354968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>647469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>502673</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>675411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>670874</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>647669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>635308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3583-8646-B83D-3A6EC7C37B05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="133733599"/>
+        <c:axId val="133797039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="133733599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133797039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133797039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133733599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -825,7 +1274,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1382,17 +2387,69 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54E4A3E-6679-024E-9EF8-19C43AAA6F82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B0B6B820-7CEA-B940-A5C4-B2F016EEA0DD}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B0B6B820-7CEA-B940-A5C4-B2F016EEA0DD}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:E8" xr:uid="{E6AB7D6B-D6C4-0046-9F09-FE506112E983}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C3585153-2E18-1F44-835E-EBB04F4FB8E2}" name="Object Size" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B20FA035-E3D3-E248-B2CD-5CE9D3772A13}" name="BW_1(KB/s)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{796D4DAC-6DDC-BF4D-BDAC-5D0C04B5CDEB}" name="BW_2(KB/s)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{CA99B41B-94A5-F24E-8867-C170A3EBFB1A}" name="BW_3(KB/S)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{62469E05-C320-7847-AFE1-E11219500B35}" name="Average" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{C3585153-2E18-1F44-835E-EBB04F4FB8E2}" name="Object Size" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B20FA035-E3D3-E248-B2CD-5CE9D3772A13}" name="BW_1(KB/s)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{796D4DAC-6DDC-BF4D-BDAC-5D0C04B5CDEB}" name="BW_2(KB/s)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{CA99B41B-94A5-F24E-8867-C170A3EBFB1A}" name="BW_3(KB/S)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{62469E05-C320-7847-AFE1-E11219500B35}" name="Average" dataDxfId="3">
       <calculatedColumnFormula>(B2+C2+D2)/3</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09BC7B1E-F3B7-8C42-8D38-B26EBC3CAA53}" name="Table1" displayName="Table1" ref="A1:B15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B15" xr:uid="{0AFC952E-7DD0-314F-9723-2263B52B6F19}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{26E1F47A-F093-8244-BF32-9E7009D5FD8C}" name="Block Size" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EF7E1A15-151E-BE48-B9B4-0729863457FE}" name="BW(KB/s)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1697,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198CE605-F03D-6C47-96BD-A16BC4C27D09}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1861,4 +2918,147 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEE4DF3-B2C9-884E-BE19-6DB1625476D0}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6555.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>23540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>35031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>66307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>340613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>354968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>647469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>502673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2">
+        <v>512375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2">
+        <v>675411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>670874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>647669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>635308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2">
+        <v>641527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>